--- a/project_manager.xlsx
+++ b/project_manager.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\ProjectManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3E0DDC-5A7D-42AF-8909-3C869442C637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B23C431-5B95-4EEF-95A5-FA5006E7FF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Telegram ID</t>
   </si>
@@ -38,6 +38,15 @@
     <t>teacher</t>
   </si>
   <si>
+    <t>luninaalex</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>refmewo</t>
+  </si>
+  <si>
     <t>Student ID</t>
   </si>
   <si>
@@ -54,6 +63,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>/start</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
 </sst>
 </file>
@@ -393,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,6 +441,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>831818397</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>840948913</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -433,9 +470,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -449,22 +488,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1008919333</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/project_manager.xlsx
+++ b/project_manager.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\ProjectManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B23C431-5B95-4EEF-95A5-FA5006E7FF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BED8163-0766-4092-AD4D-A88C41B202C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5628" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Projects" sheetId="2" r:id="rId2"/>
+    <sheet name="Messages" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Telegram ID</t>
   </si>
@@ -38,13 +39,13 @@
     <t>teacher</t>
   </si>
   <si>
-    <t>luninaalex</t>
+    <t>nervRrr</t>
   </si>
   <si>
     <t>student</t>
   </si>
   <si>
-    <t>refmewo</t>
+    <t>Project ID</t>
   </si>
   <si>
     <t>Student ID</t>
@@ -65,23 +66,70 @@
     <t>Status</t>
   </si>
   <si>
-    <t>/start</t>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Date Updated</t>
+  </si>
+  <si>
+    <t>Что</t>
+  </si>
+  <si>
+    <t>ТЛАТЛ</t>
   </si>
   <si>
     <t>pending</t>
+  </si>
+  <si>
+    <t>2024-11-21 02:36:58</t>
+  </si>
+  <si>
+    <t>яроклаоыл</t>
+  </si>
+  <si>
+    <t>тыадшуопж</t>
+  </si>
+  <si>
+    <t>2024-11-21 02:47:16</t>
+  </si>
+  <si>
+    <t>Message ID</t>
+  </si>
+  <si>
+    <t>Sender ID</t>
+  </si>
+  <si>
+    <t>Receiver ID</t>
+  </si>
+  <si>
+    <t>Message Text</t>
+  </si>
+  <si>
+    <t>Date Sent</t>
+  </si>
+  <si>
+    <t>ыерыр</t>
+  </si>
+  <si>
+    <t>ыеарвеол</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,8 +152,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,25 +459,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -443,23 +494,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>831818397</v>
+        <v>629675463</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>840948913</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -470,57 +510,163 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>1008919333</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
+      <c r="D2">
+        <v>1008919333</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1008919333</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1008919333</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>629675463</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1008919333</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
